--- a/exercises/excercises/ex200.Ei.xlsx
+++ b/exercises/excercises/ex200.Ei.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B34EB208-6190-421B-93C2-1414279FA4D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B86FA1-C37A-43A6-8DEE-DA535BC53479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3A6CA629-65E1-410E-83AD-6E4AF192F45F}"/>
   </bookViews>
@@ -4170,7 +4170,7 @@
   <dimension ref="B2:F91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M51" sqref="M51"/>
+      <selection activeCell="T15" sqref="T15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/exercises/excercises/ex200.Ei.xlsx
+++ b/exercises/excercises/ex200.Ei.xlsx
@@ -8,16 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\rnt\unifloc_vba\exercises\excercises\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5B86FA1-C37A-43A6-8DEE-DA535BC53479}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB70E0A9-5441-47EA-949C-80D2428ED280}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{3A6CA629-65E1-410E-83AD-6E4AF192F45F}"/>
+    <workbookView xWindow="-37050" yWindow="930" windowWidth="19545" windowHeight="18675" xr2:uid="{3A6CA629-65E1-410E-83AD-6E4AF192F45F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Ei" sheetId="1" r:id="rId1"/>
   </sheets>
   <externalReferences>
     <externalReference r:id="rId2"/>
   </externalReferences>
+  <definedNames>
+    <definedName name="scale">Ei!$C$6</definedName>
+  </definedNames>
   <calcPr calcId="191029" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,15 +37,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>.</t>
   </si>
   <si>
     <t>Интегральная показательная функция</t>
-  </si>
-  <si>
-    <t>Пример построения с использованием макросов unifloc_vba</t>
   </si>
   <si>
     <t>y=Ei(x)</t>
@@ -68,12 +68,27 @@
       <t>γ</t>
     </r>
   </si>
+  <si>
+    <t>Упражнения по работе с макросами Unifloc VBA</t>
+  </si>
+  <si>
+    <t>версия</t>
+  </si>
+  <si>
+    <t>Построение с использованием макросов unifloc_vba</t>
+  </si>
+  <si>
+    <t>шкала</t>
+  </si>
+  <si>
+    <t>Расчет функции Ei реализован с использованием библиотеки alglib</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,16 +103,49 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -105,15 +153,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -168,7 +241,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$12:$D$51</c:f>
+              <c:f>Ei!$D$12:$D$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -297,7 +370,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$E$12:$E$51</c:f>
+              <c:f>Ei!$E$12:$E$51</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="40"/>
@@ -703,7 +776,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$E$58</c:f>
+              <c:f>Ei!$E$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -726,7 +799,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$59:$D$82</c:f>
+              <c:f>Ei!$D$59:$D$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -807,7 +880,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$E$59:$E$82</c:f>
+              <c:f>Ei!$E$59:$E$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -898,7 +971,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$F$58</c:f>
+              <c:f>Ei!$F$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -921,7 +994,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$59:$D$82</c:f>
+              <c:f>Ei!$D$59:$D$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1002,7 +1075,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$F$59:$F$82</c:f>
+              <c:f>Ei!$F$59:$F$82</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="24"/>
@@ -1391,7 +1464,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$E$58</c:f>
+              <c:f>Ei!$E$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1414,7 +1487,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$59:$D$88</c:f>
+              <c:f>Ei!$D$59:$D$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1513,7 +1586,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$E$59:$E$88</c:f>
+              <c:f>Ei!$E$59:$E$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1622,7 +1695,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Лист1!$F$58</c:f>
+              <c:f>Ei!$F$58</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1645,7 +1718,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$D$59:$D$88</c:f>
+              <c:f>Ei!$D$59:$D$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -1744,7 +1817,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$F$59:$F$88</c:f>
+              <c:f>Ei!$F$59:$F$88</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="30"/>
@@ -3740,15 +3813,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>504826</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>116341</xdr:rowOff>
+      <xdr:colOff>333376</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>49666</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>102054</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>47626</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>540204</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3775,16 +3848,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>344260</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>116340</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>515710</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>78240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>8164</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>171449</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>160564</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3811,16 +3884,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>654504</xdr:colOff>
-      <xdr:row>56</xdr:row>
-      <xdr:rowOff>115661</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>235404</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>68036</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>312964</xdr:colOff>
-      <xdr:row>81</xdr:row>
-      <xdr:rowOff>10206</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>551089</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>153081</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3847,6 +3920,138 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>343555</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>114414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A93F69FB-D361-4D85-85E4-77D23375438A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3571875" y="1200150"/>
+          <a:ext cx="4696480" cy="819264"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>571749</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>171546</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5B20E772-FA00-4380-A975-45E4EC6B889D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4276725" y="10915650"/>
+          <a:ext cx="1781424" cy="685896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>428835</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>38157</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BE27AF3B-7F3C-4485-9907-9B46577B9AA7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6238875" y="11058525"/>
+          <a:ext cx="1505160" cy="409632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -3860,6 +4065,7 @@
     <definedNames>
       <definedName name="E_1"/>
       <definedName name="Ei"/>
+      <definedName name="getUFVersion"/>
     </definedNames>
     <sheetDataSet>
       <sheetData sheetId="0"/>
@@ -4167,935 +4373,960 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70617615-B308-4510-ABCF-A69136DF1EC9}">
   <sheetPr codeName="Лист1"/>
-  <dimension ref="B2:F91"/>
+  <dimension ref="A1:M91"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T15" sqref="T15"/>
+      <selection sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B2" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G1" t="str">
+        <f>[1]!getUFVersion()</f>
+        <v>7.11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="B3" t="s">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>1.45</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D7" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="C9">
-        <v>1.45</v>
-      </c>
-      <c r="D9" s="1">
-        <f t="shared" ref="D9:D13" si="0">D10*$C$9</f>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D9" s="3">
+        <f>D10*scale</f>
         <v>-3.5489186893244544</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="4">
         <f>[1]!Ei(D9)</f>
         <v>-6.5610639435711013E-3</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C10" t="s">
         <v>0</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
+      <c r="D10" s="3">
+        <f>D11*scale</f>
         <v>-2.4475301305685893</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="4">
         <f>[1]!Ei(D10)</f>
         <v>-2.6702703289952293E-2</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D11" s="3">
+        <f>D12*scale</f>
         <v>-1.6879518141852339</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="4">
         <f>[1]!Ei(D11)</f>
         <v>-7.5961831032166346E-2</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D12" s="3">
+        <f>D13*scale</f>
         <v>-1.1641046994380924</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="4">
         <f>[1]!Ei(D12)</f>
         <v>-0.16772247932292347</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D13" s="3">
+        <f>D14*scale</f>
         <v>-0.80283082719868448</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="4">
         <f>[1]!Ei(D13)</f>
         <v>-0.30901166223303989</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D14" s="1">
-        <f t="shared" ref="D14:D29" si="1">D15*$C$9</f>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D14" s="3">
+        <f>D15*scale</f>
         <v>-0.55367643255081689</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="4">
         <f>[1]!Ei(D14)</f>
         <v>-0.49952738640639749</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D15" s="1">
-        <f t="shared" si="1"/>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D15" s="3">
+        <f>D16*scale</f>
         <v>-0.38184581555228753</v>
       </c>
-      <c r="E15">
+      <c r="E15" s="4">
         <f>[1]!Ei(D15)</f>
         <v>-0.73380144492129795</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.4">
-      <c r="D16" s="1">
-        <f t="shared" si="1"/>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="D16" s="3">
+        <f>D17*scale</f>
         <v>-0.26334194176019832</v>
       </c>
-      <c r="E16">
+      <c r="E16" s="4">
         <f>[1]!Ei(D16)</f>
         <v>-1.0040574871647103</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D17" s="1">
-        <f t="shared" si="1"/>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" s="3">
+        <f>D18*scale</f>
         <v>-0.18161513224841264</v>
       </c>
-      <c r="E17">
+      <c r="E17" s="4">
         <f>[1]!Ei(D17)</f>
         <v>-1.3023407308127544</v>
       </c>
     </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D18" s="1">
-        <f t="shared" si="1"/>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" s="3">
+        <f>D19*scale</f>
         <v>-0.12525181534373286</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="4">
         <f>[1]!Ei(D18)</f>
         <v>-1.6216498423363281</v>
       </c>
     </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D19" s="1">
-        <f t="shared" si="1"/>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" s="3">
+        <f>D20*scale</f>
         <v>-8.6380562306022673E-2</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="4">
         <f>[1]!Ei(D19)</f>
         <v>-1.9563273344078054</v>
       </c>
     </row>
-    <row r="20" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D20" s="1">
-        <f t="shared" si="1"/>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" s="3">
+        <f>D21*scale</f>
         <v>-5.9572801590360464E-2</v>
       </c>
-      <c r="E20">
+      <c r="E20" s="4">
         <f>[1]!Ei(D20)</f>
         <v>-2.3020376807870897</v>
       </c>
     </row>
-    <row r="21" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D21" s="1">
-        <f t="shared" si="1"/>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" s="3">
+        <f>D22*scale</f>
         <v>-4.1084690751972734E-2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="4">
         <f>[1]!Ei(D21)</f>
         <v>-2.6555705757902328</v>
       </c>
     </row>
-    <row r="22" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D22" s="1">
-        <f t="shared" si="1"/>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" s="3">
+        <f>D23*scale</f>
         <v>-2.8334269484119129E-2</v>
       </c>
-      <c r="E22">
+      <c r="E22" s="4">
         <f>[1]!Ei(D22)</f>
         <v>-3.014602425038909</v>
       </c>
     </row>
-    <row r="23" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D23" s="1">
-        <f t="shared" si="1"/>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D23" s="3">
+        <f>D24*scale</f>
         <v>-1.9540875506289055E-2</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="4">
         <f>[1]!Ei(D23)</f>
         <v>-3.3774769896924814</v>
       </c>
     </row>
-    <row r="24" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D24" s="1">
-        <f t="shared" si="1"/>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" s="3">
+        <f>D25*scale</f>
         <v>-1.3476465866406245E-2</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="4">
         <f>[1]!Ei(D24)</f>
         <v>-3.7430259167676194</v>
       </c>
     </row>
-    <row r="25" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D25" s="1">
-        <f t="shared" si="1"/>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" s="3">
+        <f>D26*scale</f>
         <v>-9.2941143906249968E-3</v>
       </c>
-      <c r="E25">
+      <c r="E25" s="4">
         <f>[1]!Ei(D25)</f>
         <v>-4.1104308392598572</v>
       </c>
     </row>
-    <row r="26" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D26" s="1">
-        <f t="shared" si="1"/>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26" s="3">
+        <f>D27*scale</f>
         <v>-6.4097340624999985E-3</v>
       </c>
-      <c r="E26">
+      <c r="E26" s="4">
         <f>[1]!Ei(D26)</f>
         <v>-4.4791213094205444</v>
       </c>
     </row>
-    <row r="27" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D27" s="1">
-        <f t="shared" si="1"/>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D27" s="3">
+        <f>D28*scale</f>
         <v>-4.4205062499999993E-3</v>
       </c>
-      <c r="E27">
+      <c r="E27" s="4">
         <f>[1]!Ei(D27)</f>
         <v>-4.8487010141767417</v>
       </c>
     </row>
-    <row r="28" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D28" s="1">
-        <f t="shared" si="1"/>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28" s="3">
+        <f>D29*scale</f>
         <v>-3.0486249999999997E-3</v>
       </c>
-      <c r="E28">
+      <c r="E28" s="4">
         <f>[1]!Ei(D28)</f>
         <v>-5.2188952478277839</v>
       </c>
     </row>
-    <row r="29" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D29" s="1">
-        <f t="shared" si="1"/>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D29" s="3">
+        <f>D30*scale</f>
         <v>-2.1024999999999998E-3</v>
       </c>
-      <c r="E29">
+      <c r="E29" s="4">
         <f>[1]!Ei(D29)</f>
         <v>-5.5895138966052125</v>
       </c>
     </row>
-    <row r="30" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D30" s="1">
-        <f>D31*$C$9</f>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D30" s="3">
+        <f>D31*scale</f>
         <v>-1.4499999999999999E-3</v>
       </c>
-      <c r="E30">
+      <c r="E30" s="4">
         <f>[1]!Ei(D30)</f>
         <v>-5.9604255321924438</v>
       </c>
     </row>
-    <row r="31" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D31">
+    <row r="31" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D31" s="5">
         <f>-D32</f>
         <v>-1E-3</v>
       </c>
-      <c r="E31">
+      <c r="E31" s="4">
         <f>[1]!Ei(D31)</f>
         <v>-6.331539364136149</v>
       </c>
     </row>
-    <row r="32" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D32" s="1">
+    <row r="32" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D32" s="6">
         <f>1/1000</f>
         <v>1E-3</v>
       </c>
-      <c r="E32">
+      <c r="E32" s="4">
         <f>[1]!Ei(D32)</f>
         <v>-6.3295393640250381</v>
       </c>
     </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D33" s="1">
-        <f>D32*$C$9</f>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D33" s="3">
+        <f>D32*scale</f>
         <v>1.4499999999999999E-3</v>
       </c>
-      <c r="E33">
+      <c r="E33" s="4">
         <f>[1]!Ei(D33)</f>
         <v>-5.9575255318537073</v>
       </c>
     </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D34" s="1">
-        <f t="shared" ref="D34:D51" si="2">D33*$C$9</f>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D34" s="3">
+        <f>D33*scale</f>
         <v>2.1024999999999998E-3</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="4">
         <f>[1]!Ei(D34)</f>
         <v>-5.5853088955725321</v>
       </c>
     </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D35" s="1">
-        <f t="shared" si="2"/>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D35" s="3">
+        <f>D34*scale</f>
         <v>3.0486249999999997E-3</v>
       </c>
-      <c r="E35">
+      <c r="E35" s="4">
         <f>[1]!Ei(D35)</f>
         <v>-5.2127979946795309</v>
       </c>
     </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D36" s="1">
-        <f t="shared" si="2"/>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D36" s="3">
+        <f>D35*scale</f>
         <v>4.4205062499999993E-3</v>
       </c>
-      <c r="E36">
+      <c r="E36" s="4">
         <f>[1]!Ei(D36)</f>
         <v>-4.8398599920788952</v>
       </c>
     </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D37" s="1">
-        <f t="shared" si="2"/>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D37" s="3">
+        <f>D36*scale</f>
         <v>6.4097340624999985E-3</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="4">
         <f>[1]!Ei(D37)</f>
         <v>-4.4663018120352929</v>
       </c>
     </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D38" s="1">
-        <f t="shared" si="2"/>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D38" s="3">
+        <f>D37*scale</f>
         <v>9.2941143906249968E-3</v>
       </c>
-      <c r="E38">
+      <c r="E38" s="4">
         <f>[1]!Ei(D38)</f>
         <v>-4.091842521274951</v>
       </c>
     </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D39" s="1">
-        <f t="shared" si="2"/>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D39" s="3">
+        <f>D38*scale</f>
         <v>1.3476465866406245E-2</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="4">
         <f>[1]!Ei(D39)</f>
         <v>-3.7160727130855329</v>
       </c>
     </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D40" s="1">
-        <f t="shared" si="2"/>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D40" s="3">
+        <f>D39*scale</f>
         <v>1.9540875506289055E-2</v>
       </c>
-      <c r="E40">
+      <c r="E40" s="4">
         <f>[1]!Ei(D40)</f>
         <v>-3.3383944096035676</v>
       </c>
     </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D41" s="1">
-        <f t="shared" si="2"/>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D41" s="3">
+        <f>D40*scale</f>
         <v>2.8334269484119129E-2</v>
       </c>
-      <c r="E41">
+      <c r="E41" s="4">
         <f>[1]!Ei(D41)</f>
         <v>-2.9579313584959053</v>
       </c>
     </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D42" s="1">
-        <f t="shared" si="2"/>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D42" s="3">
+        <f>D41*scale</f>
         <v>4.1084690751972734E-2</v>
       </c>
-      <c r="E42">
+      <c r="E42" s="4">
         <f>[1]!Ei(D42)</f>
         <v>-2.5733934884540517</v>
       </c>
     </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D43" s="1">
-        <f t="shared" si="2"/>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D43" s="3">
+        <f>D42*scale</f>
         <v>5.9572801590360464E-2</v>
       </c>
-      <c r="E43">
+      <c r="E43" s="4">
         <f>[1]!Ei(D43)</f>
         <v>-2.1828685841019722</v>
       </c>
     </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D44" s="1">
-        <f t="shared" si="2"/>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D44" s="3">
+        <f>D43*scale</f>
         <v>8.6380562306022673E-2</v>
       </c>
-      <c r="E44">
+      <c r="E44" s="4">
         <f>[1]!Ei(D44)</f>
         <v>-1.7834945785031118</v>
       </c>
     </row>
-    <row r="45" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D45" s="1">
-        <f t="shared" si="2"/>
+    <row r="45" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D45" s="3">
+        <f>D44*scale</f>
         <v>0.12525181534373286</v>
       </c>
-      <c r="E45">
+      <c r="E45" s="4">
         <f>[1]!Ei(D45)</f>
         <v>-1.3709277807963711</v>
       </c>
     </row>
-    <row r="46" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D46" s="1">
-        <f t="shared" si="2"/>
+    <row r="46" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D46" s="3">
+        <f>D45*scale</f>
         <v>0.18161513224841264</v>
       </c>
-      <c r="E46">
+      <c r="E46" s="4">
         <f>[1]!Ei(D46)</f>
         <v>-0.93844420690473229</v>
       </c>
     </row>
-    <row r="47" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D47" s="1">
-        <f t="shared" si="2"/>
+    <row r="47" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="3">
+        <f>D46*scale</f>
         <v>0.26334194176019832</v>
       </c>
-      <c r="E47">
+      <c r="E47" s="4">
         <f>[1]!Ei(D47)</f>
         <v>-0.47534021097689483</v>
       </c>
     </row>
-    <row r="48" spans="4:5" x14ac:dyDescent="0.4">
-      <c r="D48" s="1">
-        <f t="shared" si="2"/>
+    <row r="48" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D48" s="3">
+        <f>D47*scale</f>
         <v>0.38184581555228753</v>
       </c>
-      <c r="E48">
+      <c r="E48" s="4">
         <f>[1]!Ei(D48)</f>
         <v>3.6103479236438682E-2</v>
       </c>
     </row>
-    <row r="49" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D49" s="1">
-        <f t="shared" si="2"/>
+    <row r="49" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D49" s="3">
+        <f>D48*scale</f>
         <v>0.55367643255081689</v>
       </c>
-      <c r="E49">
+      <c r="E49" s="4">
         <f>[1]!Ei(D49)</f>
         <v>0.62685913136260385</v>
       </c>
     </row>
-    <row r="50" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D50" s="1">
-        <f t="shared" si="2"/>
+    <row r="50" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D50" s="3">
+        <f>D49*scale</f>
         <v>0.80283082719868448</v>
       </c>
-      <c r="E50">
+      <c r="E50" s="4">
         <f>[1]!Ei(D50)</f>
         <v>1.355268930857128</v>
       </c>
     </row>
-    <row r="51" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D51" s="1">
-        <f t="shared" si="2"/>
+    <row r="51" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D51" s="3">
+        <f>D50*scale</f>
         <v>1.1641046994380924</v>
       </c>
-      <c r="E51">
+      <c r="E51" s="4">
         <f>[1]!Ei(D51)</f>
         <v>2.3430599688075597</v>
       </c>
     </row>
-    <row r="58" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D58" t="s">
+    <row r="58" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D58" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="F58" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E58" t="s">
-        <v>4</v>
-      </c>
-      <c r="F58" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="59" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D59" s="1">
+    </row>
+    <row r="59" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D59" s="3">
         <f>1/1000</f>
         <v>1E-3</v>
       </c>
-      <c r="E59">
+      <c r="E59" s="4">
         <f>[1]!E_1(D59)</f>
         <v>6.331539364136149</v>
       </c>
-      <c r="F59">
+      <c r="F59" s="4">
         <f>-(LN(D59)+0.5772)</f>
         <v>6.3305552789821364</v>
       </c>
     </row>
-    <row r="60" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D60" s="1">
-        <f>D59*$C$9</f>
+    <row r="60" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D60" s="3">
+        <f>D59*$C$6</f>
         <v>1.4499999999999999E-3</v>
       </c>
-      <c r="E60">
+      <c r="E60" s="4">
         <f>[1]!E_1(D60)</f>
         <v>5.9604255321924438</v>
       </c>
-      <c r="F60">
-        <f t="shared" ref="F60:F82" si="3">-(LN(D60)+0.5772)</f>
+      <c r="F60" s="4">
+        <f t="shared" ref="F60:F82" si="0">-(LN(D60)+0.5772)</f>
         <v>5.958991722549654</v>
       </c>
     </row>
-    <row r="61" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D61" s="1">
-        <f t="shared" ref="D61:D91" si="4">D60*$C$9</f>
+    <row r="61" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D61" s="3">
+        <f>D60*$C$6</f>
         <v>2.1024999999999998E-3</v>
       </c>
-      <c r="E61">
+      <c r="E61" s="4">
         <f>[1]!E_1(D61)</f>
         <v>5.5895138966052125</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="3"/>
+      <c r="F61" s="4">
+        <f t="shared" si="0"/>
         <v>5.5874281661171707</v>
       </c>
     </row>
-    <row r="62" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D62" s="1">
-        <f t="shared" si="4"/>
+    <row r="62" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D62" s="3">
+        <f>D61*$C$6</f>
         <v>3.0486249999999997E-3</v>
       </c>
-      <c r="E62">
+      <c r="E62" s="4">
         <f>[1]!E_1(D62)</f>
         <v>5.2188952478277839</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="3"/>
+      <c r="F62" s="4">
+        <f t="shared" si="0"/>
         <v>5.2158646096846875</v>
       </c>
     </row>
-    <row r="63" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D63" s="1">
-        <f t="shared" si="4"/>
+    <row r="63" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D63" s="3">
+        <f>D62*$C$6</f>
         <v>4.4205062499999993E-3</v>
       </c>
-      <c r="E63">
+      <c r="E63" s="4">
         <f>[1]!E_1(D63)</f>
         <v>4.8487010141767417</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="3"/>
+      <c r="F63" s="4">
+        <f t="shared" si="0"/>
         <v>4.8443010532522051</v>
       </c>
     </row>
-    <row r="64" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D64" s="1">
-        <f t="shared" si="4"/>
+    <row r="64" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D64" s="3">
+        <f>D63*$C$6</f>
         <v>6.4097340624999985E-3</v>
       </c>
-      <c r="E64">
+      <c r="E64" s="4">
         <f>[1]!E_1(D64)</f>
         <v>4.4791213094205444</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="3"/>
+      <c r="F64" s="4">
+        <f t="shared" si="0"/>
         <v>4.4727374968197218</v>
       </c>
     </row>
-    <row r="65" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D65" s="1">
-        <f t="shared" si="4"/>
+    <row r="65" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D65" s="3">
+        <f>D64*$C$6</f>
         <v>9.2941143906249968E-3</v>
       </c>
-      <c r="E65">
+      <c r="E65" s="4">
         <f>[1]!E_1(D65)</f>
         <v>4.1104308392598572</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="3"/>
+      <c r="F65" s="4">
+        <f t="shared" si="0"/>
         <v>4.1011739403872385</v>
       </c>
     </row>
-    <row r="66" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D66" s="1">
-        <f t="shared" si="4"/>
+    <row r="66" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D66" s="3">
+        <f>D65*$C$6</f>
         <v>1.3476465866406245E-2</v>
       </c>
-      <c r="E66">
+      <c r="E66" s="4">
         <f>[1]!E_1(D66)</f>
         <v>3.7430259167676194</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="3"/>
+      <c r="F66" s="4">
+        <f t="shared" si="0"/>
         <v>3.7296103839547565</v>
       </c>
     </row>
-    <row r="67" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D67" s="1">
-        <f t="shared" si="4"/>
+    <row r="67" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D67" s="3">
+        <f>D66*$C$6</f>
         <v>1.9540875506289055E-2</v>
       </c>
-      <c r="E67">
+      <c r="E67" s="4">
         <f>[1]!E_1(D67)</f>
         <v>3.3774769896924814</v>
       </c>
-      <c r="F67">
-        <f t="shared" si="3"/>
+      <c r="F67" s="4">
+        <f t="shared" si="0"/>
         <v>3.3580468275222732</v>
       </c>
     </row>
-    <row r="68" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D68" s="1">
-        <f t="shared" si="4"/>
+    <row r="68" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D68" s="3">
+        <f>D67*$C$6</f>
         <v>2.8334269484119129E-2</v>
       </c>
-      <c r="E68">
+      <c r="E68" s="4">
         <f>[1]!E_1(D68)</f>
         <v>3.014602425038909</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="3"/>
+      <c r="F68" s="4">
+        <f t="shared" si="0"/>
         <v>2.9864832710897904</v>
       </c>
     </row>
-    <row r="69" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D69" s="1">
-        <f t="shared" si="4"/>
+    <row r="69" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D69" s="3">
+        <f>D68*$C$6</f>
         <v>4.1084690751972734E-2</v>
       </c>
-      <c r="E69">
+      <c r="E69" s="4">
         <f>[1]!E_1(D69)</f>
         <v>2.6555705757902328</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="3"/>
+      <c r="F69" s="4">
+        <f t="shared" si="0"/>
         <v>2.6149197146573071</v>
       </c>
     </row>
-    <row r="70" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D70" s="1">
-        <f t="shared" si="4"/>
+    <row r="70" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D70" s="3">
+        <f>D69*$C$6</f>
         <v>5.9572801590360464E-2</v>
       </c>
-      <c r="E70">
+      <c r="E70" s="4">
         <f>[1]!E_1(D70)</f>
         <v>2.3020376807870897</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="3"/>
+      <c r="F70" s="4">
+        <f t="shared" si="0"/>
         <v>2.2433561582248243</v>
       </c>
     </row>
-    <row r="71" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D71" s="1">
-        <f t="shared" si="4"/>
+    <row r="71" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D71" s="3">
+        <f>D70*$C$6</f>
         <v>8.6380562306022673E-2</v>
       </c>
-      <c r="E71">
+      <c r="E71" s="4">
         <f>[1]!E_1(D71)</f>
         <v>1.9563273344078054</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="3"/>
+      <c r="F71" s="4">
+        <f t="shared" si="0"/>
         <v>1.8717926017923414</v>
       </c>
     </row>
-    <row r="72" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D72" s="1">
-        <f t="shared" si="4"/>
+    <row r="72" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D72" s="3">
+        <f>D71*$C$6</f>
         <v>0.12525181534373286</v>
       </c>
-      <c r="E72">
+      <c r="E72" s="4">
         <f>[1]!E_1(D72)</f>
         <v>1.6216498423363281</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="3"/>
+      <c r="F72" s="4">
+        <f t="shared" si="0"/>
         <v>1.5002290453598581</v>
       </c>
     </row>
-    <row r="73" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D73" s="1">
-        <f t="shared" si="4"/>
+    <row r="73" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D73" s="3">
+        <f>D72*$C$6</f>
         <v>0.18161513224841264</v>
       </c>
-      <c r="E73">
+      <c r="E73" s="4">
         <f>[1]!E_1(D73)</f>
         <v>1.3023407308127544</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="3"/>
+      <c r="F73" s="4">
+        <f t="shared" si="0"/>
         <v>1.1286654889273753</v>
       </c>
     </row>
-    <row r="74" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D74" s="1">
-        <f t="shared" si="4"/>
+    <row r="74" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D74" s="3">
+        <f>D73*$C$6</f>
         <v>0.26334194176019832</v>
       </c>
-      <c r="E74">
+      <c r="E74" s="4">
         <f>[1]!E_1(D74)</f>
         <v>1.0040574871647103</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="3"/>
+      <c r="F74" s="4">
+        <f t="shared" si="0"/>
         <v>0.7571019324948921</v>
       </c>
     </row>
-    <row r="75" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D75" s="1">
-        <f t="shared" si="4"/>
+    <row r="75" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D75" s="3">
+        <f>D74*$C$6</f>
         <v>0.38184581555228753</v>
       </c>
-      <c r="E75">
+      <c r="E75" s="4">
         <f>[1]!E_1(D75)</f>
         <v>0.73380144492129795</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="3"/>
+      <c r="F75" s="4">
+        <f t="shared" si="0"/>
         <v>0.38553837606240926</v>
       </c>
     </row>
-    <row r="76" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D76" s="1">
-        <f t="shared" si="4"/>
+    <row r="76" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D76" s="3">
+        <f>D75*$C$6</f>
         <v>0.55367643255081689</v>
       </c>
-      <c r="E76">
+      <c r="E76" s="4">
         <f>[1]!E_1(D76)</f>
         <v>0.49952738640639749</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="3"/>
+      <c r="F76" s="4">
+        <f t="shared" si="0"/>
         <v>1.3974819629926305E-2</v>
       </c>
     </row>
-    <row r="77" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D77" s="1">
-        <f t="shared" si="4"/>
+    <row r="77" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D77" s="3">
+        <f>D76*$C$6</f>
         <v>0.80283082719868448</v>
       </c>
-      <c r="E77">
+      <c r="E77" s="4">
         <f>[1]!E_1(D77)</f>
         <v>0.30901166223303989</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="3"/>
+      <c r="F77" s="4">
+        <f t="shared" si="0"/>
         <v>-0.35758873680255676</v>
       </c>
     </row>
-    <row r="78" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D78" s="1">
-        <f t="shared" si="4"/>
+    <row r="78" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D78" s="3">
+        <f>D77*$C$6</f>
         <v>1.1641046994380924</v>
       </c>
-      <c r="E78">
+      <c r="E78" s="4">
         <f>[1]!E_1(D78)</f>
         <v>0.16772247932292347</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="3"/>
+      <c r="F78" s="4">
+        <f t="shared" si="0"/>
         <v>-0.72915229323503972</v>
       </c>
     </row>
-    <row r="79" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D79" s="1">
-        <f t="shared" si="4"/>
+    <row r="79" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D79" s="3">
+        <f>D78*$C$6</f>
         <v>1.6879518141852339</v>
       </c>
-      <c r="E79">
+      <c r="E79" s="4">
         <f>[1]!E_1(D79)</f>
         <v>7.5961831032166346E-2</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="3"/>
+      <c r="F79" s="4">
+        <f t="shared" si="0"/>
         <v>-1.1007158496675227</v>
       </c>
     </row>
-    <row r="80" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D80" s="1">
-        <f t="shared" si="4"/>
+    <row r="80" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D80" s="3">
+        <f>D79*$C$6</f>
         <v>2.4475301305685893</v>
       </c>
-      <c r="E80">
+      <c r="E80" s="4">
         <f>[1]!E_1(D80)</f>
         <v>2.6702703289952293E-2</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="3"/>
+      <c r="F80" s="4">
+        <f t="shared" si="0"/>
         <v>-1.4722794061000057</v>
       </c>
     </row>
-    <row r="81" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D81" s="1">
-        <f t="shared" si="4"/>
+    <row r="81" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D81" s="3">
+        <f>D80*$C$6</f>
         <v>3.5489186893244544</v>
       </c>
-      <c r="E81">
+      <c r="E81" s="4">
         <f>[1]!E_1(D81)</f>
         <v>6.5610639435711013E-3</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="3"/>
+      <c r="F81" s="4">
+        <f t="shared" si="0"/>
         <v>-1.8438429625324888</v>
       </c>
     </row>
-    <row r="82" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D82" s="1">
-        <f t="shared" si="4"/>
+    <row r="82" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D82" s="3">
+        <f>D81*$C$6</f>
         <v>5.1459320995204587</v>
       </c>
-      <c r="E82">
+      <c r="E82" s="4">
         <f>[1]!E_1(D82)</f>
         <v>9.6787136903588196E-4</v>
       </c>
-      <c r="F82">
-        <f t="shared" si="3"/>
+      <c r="F82" s="4">
+        <f t="shared" si="0"/>
         <v>-2.2154065189649716</v>
       </c>
     </row>
-    <row r="83" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D83" s="1">
-        <f t="shared" si="4"/>
+    <row r="83" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D83" s="3">
+        <f>D82*$C$6</f>
         <v>7.4616015443046653</v>
       </c>
-      <c r="E83">
+      <c r="E83" s="4">
         <f>[1]!E_1(D83)</f>
         <v>6.8725102609251042E-5</v>
       </c>
-      <c r="F83">
-        <f t="shared" ref="F83:F91" si="5">-(LN(D83)+0.5772)</f>
+      <c r="F83" s="4">
+        <f t="shared" ref="F83:F91" si="1">-(LN(D83)+0.5772)</f>
         <v>-2.5869700753974549</v>
       </c>
     </row>
-    <row r="84" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D84" s="1">
-        <f t="shared" si="4"/>
+    <row r="84" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D84" s="3">
+        <f>D83*$C$6</f>
         <v>10.819322239241764</v>
       </c>
-      <c r="E84">
+      <c r="E84" s="4">
         <f>[1]!E_1(D84)</f>
         <v>1.7035473201897851E-6</v>
       </c>
-      <c r="F84">
-        <f t="shared" si="5"/>
+      <c r="F84" s="4">
+        <f t="shared" si="1"/>
         <v>-2.9585336318299378</v>
       </c>
     </row>
-    <row r="85" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D85" s="1">
-        <f t="shared" si="4"/>
+    <row r="85" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D85" s="3">
+        <f>D84*$C$6</f>
         <v>15.688017246900557</v>
       </c>
-      <c r="E85">
+      <c r="E85" s="4">
         <f>[1]!E_1(D85)</f>
         <v>9.2424188471459519E-9</v>
       </c>
-      <c r="F85">
-        <f t="shared" si="5"/>
+      <c r="F85" s="4">
+        <f t="shared" si="1"/>
         <v>-3.3300971882624206</v>
       </c>
     </row>
-    <row r="86" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D86" s="1">
-        <f t="shared" si="4"/>
+    <row r="86" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D86" s="3">
+        <f>D85*$C$6</f>
         <v>22.747625008005809</v>
       </c>
-      <c r="E86">
+      <c r="E86" s="4">
         <f>[1]!E_1(D86)</f>
         <v>5.570917257961583E-12</v>
       </c>
-      <c r="F86">
-        <f t="shared" si="5"/>
+      <c r="F86" s="4">
+        <f t="shared" si="1"/>
         <v>-3.7016607446949039</v>
       </c>
     </row>
-    <row r="87" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D87" s="1">
-        <f t="shared" si="4"/>
+    <row r="87" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D87" s="3">
+        <f>D86*$C$6</f>
         <v>32.984056261608423</v>
       </c>
-      <c r="E87">
+      <c r="E87" s="4">
         <f>[1]!E_1(D87)</f>
         <v>1.394079352734134E-16</v>
       </c>
-      <c r="F87">
-        <f t="shared" si="5"/>
+      <c r="F87" s="4">
+        <f t="shared" si="1"/>
         <v>-4.0732243011273868</v>
       </c>
     </row>
-    <row r="88" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D88" s="1">
-        <f t="shared" si="4"/>
+    <row r="88" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D88" s="3">
+        <f>D87*$C$6</f>
         <v>47.826881579332209</v>
       </c>
-      <c r="E88">
+      <c r="E88" s="4">
         <f>[1]!E_1(D88)</f>
         <v>3.4718867475212352E-23</v>
       </c>
-      <c r="F88">
-        <f t="shared" si="5"/>
+      <c r="F88" s="4">
+        <f t="shared" si="1"/>
         <v>-4.44478785755987</v>
       </c>
     </row>
-    <row r="89" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D89" s="1">
-        <f t="shared" si="4"/>
+    <row r="89" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D89" s="3">
+        <f>D88*$C$6</f>
         <v>69.348978290031695</v>
       </c>
-      <c r="E89">
+      <c r="E89" s="4">
         <f>[1]!E_1(D89)</f>
         <v>1.0837996567883697E-32</v>
       </c>
-      <c r="F89">
-        <f t="shared" si="5"/>
+      <c r="F89" s="4">
+        <f t="shared" si="1"/>
         <v>-4.8163514139923533</v>
       </c>
     </row>
-    <row r="90" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D90" s="1">
-        <f t="shared" si="4"/>
+    <row r="90" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D90" s="3">
+        <f>D89*$C$6</f>
         <v>100.55601852054596</v>
       </c>
-      <c r="E90">
+      <c r="E90" s="4">
         <f>[1]!E_1(D90)</f>
         <v>2.1009304756177275E-46</v>
       </c>
-      <c r="F90">
-        <f t="shared" si="5"/>
+      <c r="F90" s="4">
+        <f t="shared" si="1"/>
         <v>-5.1879149704248366</v>
       </c>
     </row>
-    <row r="91" spans="4:6" x14ac:dyDescent="0.4">
-      <c r="D91" s="1">
-        <f t="shared" si="4"/>
+    <row r="91" spans="4:6" x14ac:dyDescent="0.25">
+      <c r="D91" s="3">
+        <f>D90*$C$6</f>
         <v>145.80622685479165</v>
       </c>
-      <c r="E91">
+      <c r="E91" s="4">
         <f>[1]!E_1(D91)</f>
         <v>3.239184287919966E-66</v>
       </c>
-      <c r="F91">
-        <f t="shared" si="5"/>
+      <c r="F91" s="4">
+        <f t="shared" si="1"/>
         <v>-5.559478526857319</v>
       </c>
     </row>
